--- a/output/shindaiwa.xlsx
+++ b/output/shindaiwa.xlsx
@@ -495,15 +495,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cilindrata (cc)35.8
-Potenza (Kw/CV)1.5/2.04
-Peso a secco*1 (Kg)3.6
-Capacità serbatoio MIX (ml)330
-Capacità serbatoio olio (ml)240
-Passo catena (pollici)3/8 b.p.
-Maglie catena53
-Lunghezza barra applicabile* (pollici)14
-Canale Barra (mm/pollici)1.3/0.050</t>
+          <t>Cilindrata (cc)35.8Potenza (Kw/CV)1.5/2.04Peso a secco*1 (Kg)3.6Capacità serbatoio MIX (ml)330Capacità serbatoio olio (ml)240Passo catena (pollici)3/8 b.p.Maglie catena53Lunghezza barra applicabile* (pollici)14Canale Barra (mm/pollici)1.3/0.050</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -511,12 +503,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>280TCS</t>
+          <t>AH262SHD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>439,00</t>
+          <t>766,00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -536,20 +528,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-potatura/280tcs</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/tagliasiepi/tosasiepi-ad-asta/ah262shd</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cilindrata (cc)26.9
-Potenza (Kw/CV)1.04/1.4
-Peso a secco*1 (Kg)3
-Capacità serbatoio MIX (ml)240
-Capacità serbatoio olio (ml)160
-Passo catena (pollici)¼
-Maglie catena60
-Lunghezza barra applicabile* (pollici)10
-Canale Barra (mm/pollici)1.3/0.050</t>
+          <t>Potenza, robustezza, durabilità e design silenziato. Il modello con denominazione “HD” è stato progettato per un utilizzo più intenso e per i lavori più impegnativi, ideale per i professionisti.Cilindrata (cc)25.4Potenza (Kw/CV)1/1.4Serbatoio (ml)600Lunghezza tot. asta (mm)2440Lunghezza (mm)536Peso a secco (Kg)6.5Velocità di taglio (tagli/min)5000</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -557,12 +541,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>280TS</t>
+          <t>601SX</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>383,00</t>
+          <t>1045,00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -582,20 +566,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-potatura/280ts</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-forestali/601sx</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Motosega da potatura dotata di potente motore Euro 5 che riduce drasticamente le emissioni di gas di scarico e migliora l’efficienza e l’operatività. Peso contenuto e ottimo bilanciamento.Cilindrata (cc)26.9
-Potenza (Kw/CV)1.04/1.4
-Peso a secco*1 (Kg)3
-Capacità serbatoio MIX (ml)240
-Capacità serbatoio olio (ml)160
-Passo catena (pollici)3/8 b.p.
-Maglie catena40
-Lunghezza barra applicabile* (pollici)10
-Canale Barra (mm/pollici)1.3/0.050</t>
+          <t>Motosega professionale con potente motore a due tempi da 59.8 cc. Ottimo rapporto peso-potenza e emissioni ridotte nel rispetto della salute dell'ambiente e dell'operatore. Questo modello è perfetto per gli utilizzatori esigenti quali giardinieri o enti pubblici.Cilindrata (cc)59.8Potenza (Kw/CV)3.32/4.4Peso a secco*1 (Kg)6.3Capacità serbatoio MIX (ml)650Capacità serbatoio olio (ml)300Passo catena (pollici)3/8Maglie catena72Lunghezza barra applicabile* (pollici)20Canale Barra (mm/pollici)1.5/0.058</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -603,12 +579,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>251TCS</t>
+          <t>EBS256S</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>549,00</t>
+          <t>403,00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -628,19 +604,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-potatura/251tcs</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/soffiatori/soffiatori-aspiratori/ebs256s</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cilindrata (cc)25
-Potenza (Kw/CV)1.10/1.50
-Capacità serbatoio mix (ml)190
-Capacità serbatoio olio (ml)140
-Peso a secco*1 (Kg)2.3
-Lunghezza barra applicata* (pollici)8
-Canale barra (mm/pollici)1.1/0.043
-Maglie52</t>
+          <t>Modello di soffiatore-aspiratore-trituratore estremamente versatile dotato di tre lame in acciaio temperato in grado di sminuzzare grossi cumuli di foglie che possono essere raccolte nel sacco in dotazione. Questa macchina è molto versatile in quanto permette di svolgere differenti lavori di pulizia e manutenzione del giardino.Cilindrata (cc)25,4Potenza(kw/CV)0,8/1,1Volume aria max*2 (m3/h)600Velocità aria max*2 (m/sec)84,9Peso a secco*1 (Kg.)4.4Capacità serbatoio MIX (ml)470</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -678,14 +647,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Motosega forestale top di gamma, dotata di potente motore da 73.5 cc, ideale per affrontare anche lavori di abbattimento particolarmente gravosi. Design moderno con linea guida per l’abbattimento ben visibile, ottimo rapporto peso-potenza e prestazioni eccezionali, la macchina ideale per i professionisti.Cilindrata (cc)73.5
-Potenza (Kw/CV)4.1/5.6
-Peso a secco (Kg)6,8
-Capacità serbatoio MIX (ml)800
-Capacità serbatoio olio (ml)360
-Passo catena (pollici)3/8"
-Lunghezza barra applicabile (pollici)24"
-Canale Barra (mm/pollici)1.5/0.058</t>
+          <t>Motosega forestale top di gamma, dotata di potente motore da 73.5 cc, ideale per affrontare anche lavori di abbattimento particolarmente gravosi. Design moderno con linea guida per l’abbattimento ben visibile, ottimo rapporto peso-potenza e prestazioni eccezionali, la macchina ideale per i professionisti.Cilindrata (cc)73.5Potenza (Kw/CV)4.1/5.6Peso a secco (Kg)6,8Capacità serbatoio MIX (ml)800Capacità serbatoio olio (ml)360Passo catena (pollici)3/8"Lunghezza barra applicabile (pollici)24"Canale Barra (mm/pollici)1.5/0.058</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -693,12 +655,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>251TS</t>
+          <t>PT262S</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>499,00</t>
+          <t>839,00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -718,20 +680,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-potatura/251ts</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/potatori/potatori-telescopici/pt262s</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>La motosega da potatura più piccola e compatta della sua categoria; Ideale per un uso professionale grazie al suo peso estremamente ridotto, all’eccezionale potenza generata e ad una serie di accorgimenti che permettono di lavorare in modo prolungato senza affaticare l’operatore. Disponibile come optional lo schermo detriti.Cilindrata (cc)25
-Potenza (Kw/CV)1.10/1.50
-Peso a secco*1 (Kg)2.3
-Capacità serbatoio MIX (ml)190
-Capacità serbatoio olio (ml)140
-Passo catena (pollici)3/8 b.p.
-Maglie catena40
-Lunghezza barra applicabile* (pollici)10
-Canale Barra (mm/pollici)1.3/0.050</t>
+          <t>Potatore telescopico con motore da 25.4 cc per offrire la potenza necessaria ai lavori più impegnativi. L’asta telescopica allungabile fino a 3,7 metri permette di lavorare comodamente senza l’ausilio di scale.Cilindrata (cc)25.4Potenza (Kw/CV)1/1.4Peso a secco (Kg)7.5Capacità serbatoio MIX (ml)600Capacità serbatoio olio (ml)230Lunghezza massima (mm)2.720-3.720Passo catena (pollici)3/8 b.p.Maglie catena44Lunghezza barra applicabile (pollici)12”Canale Barra (mm/pollici)1.3/0.050</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -739,12 +693,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>451S</t>
+          <t>BP510S</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>565,00</t>
+          <t>967,00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -764,20 +718,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-multifunzione/451s</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-a-zaino/decespugliarore-per-mancini-bp510s</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Motosega multiuso, con cilindrata da 45 cc. Ergonomia, leggerezza e vibrazioni estremamente contenute per offrire un ottimo confort di utilizzo. Motore EURO 5 appositamente progettato per garantire emissioni contenute e ridurre drasticamente i consumi di carburante.Cilindrata (cc)45
-Potenza (Kw/CV)2.3/3.1
-Capacità serbatoio mix (ml)480
-Capacità serbatoio olio (ml)330
-Peso a secco*1 (Kg)5.0
-Passo catena 0.325
-Canale (mm/pollici)1.5/0.058
-Maglie64
-Lunghezza barra applicata* (pollici)15</t>
+          <t>Decespugliatore a zaino, con motorizzazione Euro 5 per ga­rantire una riduzione delle emissioni e dei consumi a fron­te di un notevole incremento della potenza generata. Una macchina in grado di stupire i professionisti più esigenti per le sue prestazioni ma anche per l’innovativo design che garantisce un’ottima manovrabilità in ogni condizione di lavoro.Cilindrata (cc)50.2Potenza (kw/CV)2,16/2,94Capacità serbatoio MIX (ml)1000Peso a secco*1 (Kg.)12</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -785,14 +731,10 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>341AC</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>436,00</t>
-        </is>
-      </c>
+          <t>LAME GUIDA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>Shindaiwa</t>
@@ -810,32 +752,21 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-multifunzione/341ac</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Modello multiuso caratterizzato dal sistema Starter Autimatico che garantisce una fornitura sempre ottimale del carburante in base alla temperatura del motore. Dotata di avviamento facilitato per un maggior comfort di utilizzo e dimensioni compatte per una migliore manovrabilità.Cilindrata (cc)34,4
-Potenza (Kw/CV)1.5/2.1
-Capacità serbatoio mix (ml)280
-Capacità serbatoio olio (ml)230
-Peso a secco*1 (Kg)3,8
-Passo catena3/8"
-Canale (mm/pollici)1.3/0.050
-Lunghezza barra applicata* (pollici)14</t>
-        </is>
-      </c>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/lame-e-catene/lame-guida</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EBS256S</t>
+          <t>B510S</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>403,00</t>
+          <t>1040,00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -855,17 +786,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/soffiatori/soffiatori-aspiratori/ebs256s</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/b510s</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Modello di soffiatore-aspiratore-trituratore estremamente versatile dotato di tre lame in acciaio temperato in grado di sminuzzare grossi cumuli di foglie che possono essere raccolte nel sacco in dotazione. Questa macchina è molto versatile in quanto permette di svolgere differenti lavori di pulizia e manutenzione del giardino.Cilindrata (cc)25,4
-Potenza(kw/CV)0,8/1,1
-Volume aria max*2 (m3/h)600
-Velocità aria max*2 (m/sec)84,9
-Peso a secco*1 (Kg.)4.4
-Capacità serbatoio MIX (ml)470</t>
+          <t>Potente decespugliatore con cilindrata da 50.2cc per lavori particolarmente impegnativi. Sistema filtro aria studiato per garantire una più lunga durata ed efficienza del motore. In dotazione il comodo zaino Ergo Pro che sostiene il peso della macchina garantendo il massimo comfort per l’operatore grazie al design appositamente studiato. Il sistema di aggancio rapido aumenta notevolmente la praticità e la sicurezza dell’operatore.Cilindrata (cc)50.2Potenza (kw/CV)2,16/2,94Capacità serbatoio MIX (ml)690Peso a secco*1 (Kg.)9</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -873,12 +799,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ATTACCO SPAZZOLATRICE</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>518,00</t>
+          <t>Testine Speed Feed</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -898,21 +819,25 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/altre-macchine/macchina-multifunzione/attacco-spazzolatrice</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/testine-a-filo/skasf400-s</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>CodiceSKASF400-SDiametro4"Capacità⦰ 2,5 x 6 mCompatibilità20∼30 cc</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>305S</t>
+          <t>EC741S</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>289,00</t>
+          <t>1486,00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -932,20 +857,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-multifunzione/305s</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/altre-macchine/mototroncatrice/ec741s</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Potente motosega multiuso adatta a svolgere diversi tipi di lavoro. Sistema Soft Start per ridurre drasticamente lo sforzo nell’accensione. Un modello leggero e affidabile in grado di soddisfare ogni tipo di utilizzatore, dal privato al professionista.Cilindrata (cc)30.5
-Potenza (Kw/CV)1.1/1.5
-Peso a secco*1 (Kg)4
-Capacità serbatoio MIX (ml)250
-Capacità serbatoio olio (ml)260
-Passo catena (pollici)3/8 b.p.
-Maglie catena53
-Lunghezza barra applicabile* (pollici)14
-Canale Barra (mm/pollici)1.3/0.050</t>
+          <t>Straordinaria potenza in grado di raggiungere prestazioni eccezionali. Dotata di una serie di accordimenti come il miglior sistema di filtraggio aria e la speciale cromatura del cilindro che previene l'usura e aumenta la resistenza al calore.Cilindrata (cc)73,3Potenza (kw/CV)3.2/4,35Peso a secco*1 (Kg.)10.7Capacità serbatoio MIX (ml)700Interno disco (mm)20</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -953,12 +870,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>B510S</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1040,00</t>
+          <t>Disco Protettivo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -978,15 +890,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/b510s</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/testine-a-filo/disco-protettivo</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Potente decespugliatore con cilindrata da 50.2cc per lavori particolarmente impegnativi. Sistema filtro aria studiato per garantire una più lunga durata ed efficienza del motore. In dotazione il comodo zaino Ergo Pro che sostiene il peso della macchina garantendo il massimo comfort per l’operatore grazie al design appositamente studiato. Il sistema di aggancio rapido aumenta notevolmente la praticità e la sicurezza dell’operatore.Cilindrata (cc)50.2
-Potenza (kw/CV)2,16/2,94
-Capacità serbatoio MIX (ml)690
-Peso a secco*1 (Kg.)9</t>
+          <t>CodiceSKA1078DescrizionePer testine da 4", 5" e 6"</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -994,12 +903,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C361T</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>784,00</t>
+          <t>BATTI E VAI W5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,15 +923,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/c361t</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/testine-a-filo/skaw5-10125bl</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Medesime caratteristiche del modello con impugnatura ad “L”, questo decespugliatore estremamente potente racchiude le elevate performance del motore a 4 cicli con il comfort dell’impugnatura a “U”, ideale per un utilizzo anche su superfici sconnesse.Cilindrata (cc)36.3
-Potenza (Kw/CV)1.4/1.9
-Serbatoio mix (ml)850
-Peso a secco*1 (Kg)6,3</t>
+          <t>CodiceSKAW5-10125BLDiametro5 -1/2"Capacità⦰ 2,4 x 7 mCompatibilità30∼45 cc</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1035,14 +936,10 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>B410TS</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>912,00</t>
-        </is>
-      </c>
+          <t>FILO IN NYLON ARMOR LINE SILENT</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>Shindaiwa</t>
@@ -1060,64 +957,20 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/b410ts</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Cilindrata (cc)41.5
-Potenza (kw/CV)1,8/2,45
-Capacità serbatoio MIX (ml)690
-Peso a secco*1 (Kg.)8,7</t>
-        </is>
-      </c>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/filo-in-nylon/filo-nylon-armor-line-silent</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>SKA20020P1</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>12,00</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/altri-accessori/pro-up-grasso</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>PRO UP GRASSO è un lubrificante multifunzionale, a base di addensanti complessi alla poliurea per alte temperature di funzionamento e lunghi intervalli di lubrificazione.Quantità200 g
-Confezione20 pz.</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-    </row>
+    <row r="16"/>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Testine Speed Feed</t>
-        </is>
-      </c>
+          <t>PROTETTIVO NEW EXTRA SYNT LT 208</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>Shindaiwa</t>
@@ -1135,30 +988,19 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/testine-a-filo/skasf400-s</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>CodiceSKASF400-S
-Diametro4"
-Capacità⦰ 2,5 x 6 m
-Compatibilità20∼30 cc</t>
-        </is>
-      </c>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/protettivo-catene/protettivo-new-extra-synt-lt-208</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>T410TS</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>839,00</t>
-        </is>
-      </c>
+          <t>PROTETTIVO NEW EXTRA SYNT LT 5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>Shindaiwa</t>
@@ -1176,94 +1018,82 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/t410ts</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Decespugliatore professionale potente e robusto dotato di tecnologia High Torque in grado di svolgere anche i lavori più gravosi mantenendo consumi ridotti. Macchina progettata per garantire prestazioni eccellenti, equiparabili a quelle di decespugliatori di cilindrata superiore, senza affaticare l’operatore grazie alle basse vibrazioni generate.Cilindrata (cc)41.5
-Potenza (kw/CV)1,8/2,45
-Capacità serbatoio MIX (ml)690
-Peso a secco*1 (Kg.)8</t>
-        </is>
-      </c>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/protettivo-catene/protettivo-new-extra-synt-lt-5-0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>SKA15100P1</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/altri-accessori/grasso-polivalente</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Grasso di colore grigio-nero addensato con saponi di litio, addittivato con Bisolfuro di Molibdeno. Presenta caratteristiche superiori EP ed elevate prestazioni antiusura e antiattrito. Risponde alle specifiche: ISO 6743-9 L-XBCHB 2.Quantità125 ml
-Confezione25 pz.</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-    </row>
-    <row r="20"/>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Disco Protettivo</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/testine-a-filo/disco-protettivo</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>CodiceSKA1078
-DescrizionePer testine da 4", 5" e 6"</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-    </row>
-    <row r="22"/>
+    <row r="19"/>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PROTETTIVO NEW EXTRA SYNT LT 25</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/protettivo-catene/protettivo-new-extra-synt-lt-25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21"/>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GUANTI PROTETTIVI DA LAVORO</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>17,00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-protettivo/guanti-da-lavoro-ska201701</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>TagliaM-XL</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+    </row>
     <row r="23"/>
     <row r="24"/>
     <row r="25"/>
@@ -1271,10 +1101,9 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PROTETTIVO NEW EXTRA SYNT LT 208</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+          <t>PILE CON ZIP SHINDAIWA</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>Shindaiwa</t>
@@ -1292,117 +1121,129 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/protettivo-catene/protettivo-new-extra-synt-lt-208</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-casual/giacca-pile-da-lavoro-skapile17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>TagliaM-XXL</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr"/>
     </row>
-    <row r="28"/>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PANTALONE BERMUDA SHINDAIWA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-casual/pantalone-da-lavoro-skabermuda17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>TagliaM-XXL</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
     <row r="29"/>
     <row r="30"/>
     <row r="31"/>
     <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>GIACCA SOFTSHELL SHINDAIWA</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-casual/giacca-da-lavoro-ska130141</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>TagliaM-XXL</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>POLO A MANICA CORTA SHINDAIWA</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-casual/polo-da-lavoro-manica-corta-skapolomc17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>TagliaS-XXL</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+    </row>
     <row r="35"/>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>PRO UP LT 209</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/protettivo-catene/pro-up-lt-209</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>PRO UP LT 25</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/protettivo-catene/pro-up-lt-25</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>PROTETTIVO NEW EXTRA SYNT LT 25</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/protettivo-catene/protettivo-new-extra-synt-lt-25</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-    </row>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PROTETTIVO NEW EXTRA SYNT LT 2</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
+          <t>POLO A MANICA LUNGA SHINDAIWA</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>Shindaiwa</t>
@@ -1420,55 +1261,103 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/protettivo-catene/protettivo-new-extra-synt-lt-2-0</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-casual/polo-da-lavoro-manica-lunga-skapoloml17</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>TagliaS-XXL</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
     </row>
     <row r="40"/>
     <row r="41"/>
-    <row r="42"/>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PANTALONE TECNICO SHINDAIWA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-casual/pantalone-da-lavoro-tecnico-skapant17-m-xxl</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>TagliaM-XXL</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+    </row>
     <row r="43"/>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>PROTETTIVO NEW EXTRA SYNT LT 5</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/protettivo-catene/protettivo-new-extra-synt-lt-5-0</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-    </row>
+    <row r="44"/>
     <row r="45"/>
-    <row r="46"/>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CUFFIE PROTETTIVE SHINDAIWA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>9,00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-protettivo/cuffie-protettive-ska629</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>TagliaUnica</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+    </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PRO UP LT 5</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
+          <t>OCCHIALI PROTETTIVI</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>Shindaiwa</t>
@@ -1486,19 +1375,27 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/protettivo-catene/pro-up-lt-5-0</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-protettivo/occhiali-protettivi-ska1922</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>TagliaUnica</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PRO UP 2 LT 2,0</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
+          <t>ZAINO ERGO PRO</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>108,00</t>
+        </is>
+      </c>
       <c r="C48" t="inlineStr">
         <is>
           <t>Shindaiwa</t>
@@ -1516,16 +1413,25 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/protettivo-catene/pro-up-lt-2-0</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-protettivo/zaino-da-lavoro-skac06200620</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>TagliaUnica</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BATTI E VAI W5</t>
+          <t>VISIERA CON CUFFIE SHINDAIWA</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>49,00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1545,95 +1451,27 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/testine-a-filo/skaw5-10125bl</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-protettivo/visiera-protettiva-ska701331</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>CodiceSKAW5-10125BL
-Diametro5 -1/2"
-Capacità⦰ 2,4 x 7 m
-Compatibilità30∼45 cc</t>
+          <t>TagliaUnica</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>BATTI E VAI F4</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/testine-a-filo/skaf4-0710bl</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>CodiceSKAF4-0710BL
-Diametro4"
-Capacità⦰ 2,4 x 2,5
-Compatibilità20∼40 cc</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>BATTI E VAI W4</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/testine-a-filo/skaw4-unvfn</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>CodiceSKAW4-UNVFN - SKAW4-10125NL
-Diametro4"
-Capacità⦰ 2,4 x 4 m
-Compatibilità20∼30 cc</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
-    </row>
+    <row r="50"/>
+    <row r="51"/>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BATTI E VAI Z5</t>
+          <t>MAGLIA TECNICA SHINDAIWA PLUS</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>55,00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1653,15 +1491,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/testine-a-filo/skaz5-10125nl</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-protettivo/maglia-da-lavoro-tecnica-ska130181</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>CodiceSKAZ5-10125NL
-Diametro5"
-Capacità ⦰ 2,4 x 7 m
-Compatibilità25∼40 cc</t>
+          <t>TagliaS-XXL</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -1669,7 +1504,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>B5 BATTI E VAI</t>
+          <t>PANTALONE PROTETTIVO PLUS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>59,00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1689,61 +1529,97 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/testine-a-filo/skab5-10125bl</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-protettivo/pantalone-protettivo</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>CodiceSKAB5-10125BL
-Diametro 5"
-Capacità⦰ 2,4 x 6,5 m
-Compatibilità25∼40 cc</t>
+          <t>TagliaM-XL</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
     </row>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>BATTI E VAI B5</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/testine-a-filo/skab5-08125bl</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>CodiceSKAB5-08125BL
-Diametro5"
-Capacità⦰ 2,4 x 6,5 m
-Compatibilità25∼40 cc</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
-    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MAGLIA TECNICA SHINDAIWA PLUS M/CORTE</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>35,00</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-protettivo/maglia-tecnica-maniche-corte-ska130182</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>TagliaS-XXL</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>GILET SHINDAIWA PLUS</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>69,00</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-protettivo/gilet-da-lavoro-ska201110-01-05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>TagliaS-XXL</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+    </row>
+    <row r="56"/>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DISCO A OTTANTA DENTI</t>
+          <t>ADDI MIX LT 4,0</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -1764,54 +1640,20 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/dischi-di-taglio/disco-a-80-denti</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/olio-mix/addi-mix-lt-4-0</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>TESTINA SPEED FEED 375</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/testine-a-filo/ska7889011001</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>CodiceSKA7889011001
-Diametro4"
-Capacità⦰ 2,4 x 3 m
-Compatibilità20∼30 cc</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
-    </row>
+    <row r="58"/>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TESTINA SPEED FEED 450</t>
-        </is>
-      </c>
+          <t>ADDI MIX DOSATORE LT 1,0</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>Shindaiwa</t>
@@ -1829,25 +1671,76 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/testine-a-filo/ska2882008001</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>CodiceSKA2882008001
-Diametro4"
-Capacità⦰ 2,4 x 6 m
-Compatibilità35∼50 cc</t>
-        </is>
-      </c>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/olio-mix/addi-mix-dosatore-lt-1-0</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
     </row>
-    <row r="60"/>
-    <row r="61"/>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ADDI MIX LT 0,1</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/olio-mix/addi-mix-lt-0-1</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PRO UP 2 LT 0,1</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/olio-mix/pro-up-2t-lt-0-1</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+    </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DISCO A QUARANTA DENTI</t>
+          <t>PROTETTIVO NEW EXTRA SYNT LT 2</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -1868,78 +1761,49 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/dischi-di-taglio/disco-a-40-denti</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/protettivo-catene/protettivo-new-extra-synt-lt-2-0</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
     </row>
-    <row r="63"/>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PRO UP 2 LT 5,0</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/olio-mix/pro-up-2t-lt-5-0</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+    </row>
     <row r="64"/>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>DISCO A OTTO DENTI</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/dischi-di-taglio/disco-a-8-denti</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>DISCO A QUATTRO DENTI</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/dischi-di-taglio/disco-a-4-denti</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-    </row>
+    <row r="65"/>
+    <row r="66"/>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DISCO A TRE DENTI</t>
+          <t>PRO UP LT 209</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -1960,52 +1824,110 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/dischi-di-taglio/disco-a-3-denti</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/protettivo-catene/pro-up-lt-209</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
     </row>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>DISCO A DUE DENTI</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/dischi-di-taglio/disco-a-2-denti</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-    </row>
-    <row r="71"/>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PRO UP LT 25</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/protettivo-catene/pro-up-lt-25</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>PRO UP LT 5</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/protettivo-catene/pro-up-lt-5-0</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+    </row>
+    <row r="70"/>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PRO UP 2 LT 2,0</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/protettivo-catene/pro-up-lt-2-0</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+    </row>
     <row r="72"/>
     <row r="73"/>
     <row r="74"/>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>FILO IN NYLON ARMOR LINE QUADRATO</t>
+          <t>DISCO A QUARANTA DENTI</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -2026,7 +1948,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/filo-in-nylon/filo-nylon-armor-line-quadrato</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/dischi-di-taglio/disco-a-40-denti</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2035,7 +1957,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>FILO IN NYLON ARMOR LINE SILENT</t>
+          <t>DISCO A OTTANTA DENTI</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -2056,81 +1978,52 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/filo-in-nylon/filo-nylon-armor-line-silent</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/dischi-di-taglio/disco-a-80-denti</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>FILO IN NYLON ARMOR LINE TONDO</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/filo-in-nylon/filo-nylon-armor-line-tondo</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-    </row>
-    <row r="78"/>
+    <row r="77"/>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>DISCO A OTTO DENTI</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/dischi-di-taglio/disco-a-8-denti</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+    </row>
     <row r="79"/>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>LAME GUIDA</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/lame-e-catene/lame-guida</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-    </row>
+    <row r="80"/>
     <row r="81"/>
     <row r="82"/>
     <row r="83"/>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MAGLIE DI GIUNZIONE PER ROTOLI CATENA</t>
+          <t>DISCO A TRE DENTI</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -2151,7 +2044,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/lame-e-catene/maglie-di-giunzione-per-rotoli-catena-shindaiwa</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/dischi-di-taglio/disco-a-3-denti</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -2160,7 +2053,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ROTOLI CATENA 30 MT</t>
+          <t>DISCO A QUATTRO DENTI</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -2181,158 +2074,118 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/lame-e-catene/rotoli-catena-shindaiwa-30-mt</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/dischi-di-taglio/disco-a-4-denti</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
     </row>
-    <row r="86"/>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>CATENE CONFEZIONATE</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/lame-e-catene/catene-per-motoseghe</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>DISCO A DUE DENTI</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/dischi-di-taglio/disco-a-2-denti</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+    </row>
+    <row r="87"/>
     <row r="88"/>
     <row r="89"/>
     <row r="90"/>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>KIT LAMA CATENA</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/lame-e-catene/kit-lama-catena-shindaiwa</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>LAME GUIDA MARCHIATE</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/lame-e-catene/lame-guida-marchiate-shindaiwa</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>T361T</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>726,00</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/t361t</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Decespugliatore con potente motore a 4 cicli da 36,3 cm3, silenzioso, performante e dai consumi contenuti. Le prestazioni sono ulteriormente incrementate dalla presenza del sistema High Torque, che permette di lavorare con erba molto fitta e in condizioni particolarmente gravose senza difficoltà.Cilindrata (cc)36.3
-Potenza (Kw/CV)1.4/1.9
-Serbatoio mix (ml)850
-Peso a secco*1 (Kg)6.1</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr"/>
-    </row>
-    <row r="94"/>
-    <row r="95"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>FILO IN NYLON ARMOR LINE QUADRATO</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/filo-in-nylon/filo-nylon-armor-line-quadrato</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>FILO IN NYLON ARMOR LINE TONDO</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/filo-in-nylon/filo-nylon-armor-line-tondo</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+    </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>C303TS</t>
+          <t>SKA20020P1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>708,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2352,110 +2205,61 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/c303ts</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/altri-accessori/pro-up-grasso</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Cilindrata (cc)30,5
-Potenza (kw/CV)1,3/1,77
-Peso a secco*1 (Kg.)6,0</t>
+          <t>PRO UP GRASSO è un lubrificante multifunzionale, a base di addensanti complessi alla poliurea per alte temperature di funzionamento e lunghi intervalli di lubrificazione.Quantità200 gConfezione20 pz.</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
     </row>
-    <row r="97"/>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>SKA15100P1</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/altri-accessori/grasso-polivalente</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Grasso di colore grigio-nero addensato con saponi di litio, addittivato con Bisolfuro di Molibdeno. Presenta caratteristiche superiori EP ed elevate prestazioni antiusura e antiattrito. Risponde alle specifiche: ISO 6743-9 L-XBCHB 2.Quantità125 mlConfezione25 pz.</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+    </row>
     <row r="98"/>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>T263TXS</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>538,00</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/t263txs</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Decespugliatore potente e performante grazie alla coppia conica High Torque che fornisce un ulteriore incremento dell’efficienza e dell’operatività. In caso di erba molto alta e spessa, la coppia conica High Torque è in grado di regolare velocità e potenza senza mettere sotto sforzo la macchina.Cilindrata (cc)25.4
-Potenza (kw/CV)1/1,36
-Peso a secco*1 (Kg.)5,6
-Capacità serbatoio MIX (ml)600</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>T252</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>309,00</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/t251</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Peso contenuto, potenza di 0,9 Kw per questo decespugliatore che abbina straordinaria manovrabilità con efficienti prestazioni di taglio.Cilindrata (cc)25,4
-Potenza (kw/CV)0,9/1,22
-Peso a secco*1 (Kg.)5,3</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr"/>
-    </row>
+    <row r="99"/>
+    <row r="100"/>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>T281TS</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>409,00</t>
+          <t>BATTI E VAI F4</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2475,15 +2279,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/t281ts</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/testine-a-filo/skaf4-0710bl</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Potente decespugliatore con cilindrata da 28.1 cc, dotato di sistema HIGH TORQUE è in grado di svolgere lavori impegnativi ottimizzando i tempi di lavoro e l’efficienza. Peso contenuto, efficiente sistema antivibrante per il massimo comfort di utilizzo.Cilindrata (cc)28.1
-Potenza (kw/CV)0,9/1,22
-Peso a secco*1 (Kg.)5,8
-Capacità serbatoio MIX (ml)610</t>
+          <t>CodiceSKAF4-0710BLDiametro4"Capacità⦰ 2,4 x 2,5Compatibilità20∼40 cc</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -2491,12 +2292,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>T303TS</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>647,00</t>
+          <t>BATTI E VAI B5</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2516,29 +2312,53 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/t303ts</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/testine-a-filo/skab5-08125bl</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Decespugliatore con cilindrata da 30.5 cc per prestazioni professionali. L’eccezionale rapporto peso/potenza incrementa l’efficienza di lavoro e riduce la fatica dell’operatore. Il sistema High Torque permette di tagliare in modo agevole erba particolarmente fitta.Cilindrata (cc)30.5
-Potenza (Kw/CV)1.3/1.77
-Serbatoio mix (ml)710
-Peso a secco*1 (Kg)5,8</t>
+          <t>CodiceSKAB5-08125BLDiametro5"Capacità⦰ 2,4 x 6,5 mCompatibilità25∼40 cc</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
     </row>
-    <row r="103"/>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>BATTI E VAI Z5</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/testine-a-filo/skaz5-10125nl</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>CodiceSKAZ5-10125NLDiametro5"Capacità ⦰ 2,4 x 7 mCompatibilità25∼40 cc</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+    </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>T226S</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>239,00</t>
+          <t>BATTI E VAI W4</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2558,15 +2378,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/t226s</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/testine-a-filo/skaw4-unvfn</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Il modello più compatto della gamma decespugliatori, il peso contenuto e il sistema Soft Start lo rendono estremamente comodo da usare, ideale per gli utilizzatori privati che devono curare giardini di dimensioni medio-piccole.Cilindrata (cc)21.2
-Potenza (kw/CV)0,71/0,95
-Peso a secco*1 (Kg.)4,5
-Capacità serbatoio MIX (ml)400</t>
+          <t>CodiceSKAW4-UNVFN - SKAW4-10125NLDiametro4"Capacità⦰ 2,4 x 4 mCompatibilità20∼30 cc</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -2575,12 +2392,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ATTACCO TAGLIABORDI</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>202,00</t>
+          <t>B5 BATTI E VAI</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2600,22 +2412,53 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/altre-macchine/macchina-multifunzione/attacco-tagliabordi</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr"/>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/testine-a-filo/skab5-10125bl</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>CodiceSKAB5-10125BLDiametro 5"Capacità⦰ 2,4 x 6,5 mCompatibilità25∼40 cc</t>
+        </is>
+      </c>
       <c r="H106" t="inlineStr"/>
     </row>
-    <row r="107"/>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>TESTINA SPEED FEED 450</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/testine-a-filo/ska2882008001</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>CodiceSKA2882008001Diametro4"Capacità⦰ 2,4 x 6 mCompatibilità35∼50 cc</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+    </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ATTACCO TAGLIASIEPI CORTO</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>438,00</t>
+          <t>TESTINA SPEED FEED 375</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2635,21 +2478,25 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/altre-macchine/macchina-multifunzione/attacco-tosasiepi-corto</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr"/>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/testine-a-filo/ska7889011001</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>CodiceSKA7889011001Diametro4"Capacità⦰ 2,4 x 3 mCompatibilità20∼30 cc</t>
+        </is>
+      </c>
       <c r="H108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ATTACCO ZAPPETTA</t>
+          <t>ATTACCO SPAZZOLATRICE</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>374,00</t>
+          <t>518,00</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2669,22 +2516,55 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/altre-macchine/macchina-multifunzione/attacco-zappetta</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/altre-macchine/macchina-multifunzione/attacco-spazzolatrice</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
     </row>
-    <row r="110"/>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ATTACCO TAGLIABORDI</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>202,00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/altre-macchine/macchina-multifunzione/attacco-tagliabordi</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+    </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ATTACCO TAGLIASIEPI</t>
+          <t>ATTACCO ZAPPETTA</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>474,00</t>
+          <t>374,00</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2704,91 +2584,58 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/altre-macchine/macchina-multifunzione/attacco-tosasiepi</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/altre-macchine/macchina-multifunzione/attacco-zappetta</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+    <row r="112"/>
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>ATTACCO POTATORE</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>283,00</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
         <is>
           <t>https://www.shindaiwa-italia.it/prodotti/altre-macchine/macchina-multifunzione/attacco-potatore</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-    </row>
-    <row r="113"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+    </row>
     <row r="114"/>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>ATTACCO TESTINA A FILO</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>173,00</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/altre-macchine/macchina-multifunzione/attacco-testina-a-filo</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-    </row>
+    <row r="115"/>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>M262S</t>
+          <t>ATTACCO TAGLIASIEPI</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>485,00</t>
+          <t>474,00</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2808,120 +2655,93 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/altre-macchine/macchina-multifunzione/m262s</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Modello multifunzione con potente motore da 25,4 cc. Versatilità e praticità, grazie al sistema connettore rapido che consente di innestare 8 diversi attacchi per un'ampia varietà di utilizzi.Cilindrata (cc)25,4
-Potenza (Kw/CV)1,0/1,36
-Peso a secco*1 (kg)4,8
-Capacitò serbatoio MIX (ml)600
-Lunghezza (mm)1.038</t>
-        </is>
-      </c>
+          <t>https://www.shindaiwa-italia.it/prodotti/altre-macchine/macchina-multifunzione/attacco-tosasiepi</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>BP510S</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>967,00</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-a-zaino/decespugliarore-per-mancini-bp510s</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Decespugliatore a zaino, con motorizzazione Euro 5 per ga­rantire una riduzione delle emissioni e dei consumi a fron­te di un notevole incremento della potenza generata. Una macchina in grado di stupire i professionisti più esigenti per le sue prestazioni ma anche per l’innovativo design che garantisce un’ottima manovrabilità in ogni condizione di lavoro.Cilindrata (cc)50.2
-Potenza (kw/CV)2,16/2,94
-Capacità serbatoio MIX (ml)1000
-Peso a secco*1 (Kg.)12</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr"/>
-    </row>
-    <row r="118"/>
-    <row r="119"/>
+    <row r="117"/>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>ATTACCO TESTINA A FILO</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>173,00</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/altre-macchine/macchina-multifunzione/attacco-testina-a-filo</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ATTACCO TAGLIASIEPI CORTO</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>438,00</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/altre-macchine/macchina-multifunzione/attacco-tosasiepi-corto</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+    </row>
     <row r="120"/>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>EC741S</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>1486,00</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/altre-macchine/mototroncatrice/ec741s</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Straordinaria potenza in grado di raggiungere prestazioni eccezionali. Dotata di una serie di accordimenti come il miglior sistema di filtraggio aria e la speciale cromatura del cilindro che previene l'usura e aumenta la resistenza al calore.Cilindrata (cc)73,3
-Potenza (kw/CV)3.2/4,35
-Peso a secco*1 (Kg.)10.7
-Capacità serbatoio MIX (ml)700
-Interno disco (mm)20</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr"/>
-    </row>
+    <row r="121"/>
     <row r="122"/>
     <row r="123"/>
     <row r="124"/>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>362WS</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>499,00</t>
-        </is>
-      </c>
+          <t>MAGLIE DI GIUNZIONE PER ROTOLI CATENA</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
           <t>Shindaiwa</t>
@@ -2939,29 +2759,22 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-multifunzione/362ws</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Cilindrata (cc)35.8
-Potenza (Kw/CV)1.5/2.04
-Peso a secco*1 (Kg)3.8
-Capacità serbatoio MIX (ml)320
-Capacità serbatoio olio (ml)230
-Passo catena (pollici)3/8 b.p.
-Maglie catena53
-Lunghezza barra applicabile* (pollici)14
-Canale Barra (mm/pollici)1.3/0.050</t>
-        </is>
-      </c>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/lame-e-catene/maglie-di-giunzione-per-rotoli-catena-shindaiwa</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
     </row>
     <row r="126"/>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MOTOSEGHE</t>
+          <t>M262S</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>485,00</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2981,73 +2794,28 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-multifunzione/motoseghe</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr"/>
+          <t>https://www.shindaiwa-italia.it/prodotti/altre-macchine/macchina-multifunzione/m262s</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Modello multifunzione con potente motore da 25,4 cc. Versatilità e praticità, grazie al sistema connettore rapido che consente di innestare 8 diversi attacchi per un'ampia varietà di utilizzi.Cilindrata (cc)25,4Potenza (Kw/CV)1,0/1,36Peso a secco*1 (kg)4,8Capacitò serbatoio MIX (ml)600Lunghezza (mm)1.038</t>
+        </is>
+      </c>
       <c r="H127" t="inlineStr"/>
     </row>
     <row r="128"/>
     <row r="129"/>
     <row r="130"/>
     <row r="131"/>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>251WS</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>547,00</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-multifunzione/251ws</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>Motosega multiuso basata sul noto modello 251TS ma con doppia impugnatura per una migliore manovrabilità.Cilindrata (cc)25
-Potenza (Kw/CV)1.10/1.50
-Peso a secco*1 (Kg)2.6
-Capacità serbatoio MIX (ml)190
-Capacità serbatoio olio (ml)140
-Passo catena (pollici)1/4
-Maglie catena60
-Lunghezza barra applicabile* (pollici)10
-Canale Barra (mm/pollici)1.1/0.043</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr"/>
-    </row>
+    <row r="132"/>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>PT262S</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>839,00</t>
-        </is>
-      </c>
+          <t>KIT LAMA CATENA</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
           <t>Shindaiwa</t>
@@ -3065,37 +2833,49 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/potatori/potatori-telescopici/pt262s</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>Potatore telescopico con motore da 25.4 cc per offrire la potenza necessaria ai lavori più impegnativi. L’asta telescopica allungabile fino a 3,7 metri permette di lavorare comodamente senza l’ausilio di scale.Cilindrata (cc)25.4
-Potenza (Kw/CV)1/1.4
-Peso a secco (Kg)7.5
-Capacità serbatoio MIX (ml)600
-Capacità serbatoio olio (ml)230
-Lunghezza massima (mm)2.720-3.720
-Passo catena (pollici)3/8 b.p.
-Maglie catena44
-Lunghezza barra applicabile (pollici)12”
-Canale Barra (mm/pollici)1.3/0.050</t>
-        </is>
-      </c>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/lame-e-catene/kit-lama-catena-shindaiwa</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
     </row>
-    <row r="134"/>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ROTOLI CATENA 30 MT</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/lame-e-catene/rotoli-catena-shindaiwa-30-mt</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+    </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>AH236SLW</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>684,00</t>
-        </is>
-      </c>
+          <t>CATENE CONFEZIONATE</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
           <t>Shindaiwa</t>
@@ -3113,123 +2893,56 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/tagliasiepi/tosasiepi-ad-asta/ah236slw</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>Modello ultraleggero con motorizzazioni Euro 5, le emissioni e i consumi sono estremamente contenuti. Questa macchina è stata progettata per soddisfare a pieno il professionista grazie alla potenza e alla qualità delle lame che insieme garantiscono un taglio preciso e un’ottima operatività.Cilindrata (cc)21.2
-Potenza (Kw/CV)0.7/0.95
-Serbatoio mix (ml)440
-Lunghezza tot. asta (mm)2407
-Lunghezza lama (mm)519
-Peso a secco (Kg)6.2
-Velocità di taglio (tagli/min)3900</t>
-        </is>
-      </c>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/lame-e-catene/catene-per-motoseghe</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>AH262SHD</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>766,00</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/tagliasiepi/tosasiepi-ad-asta/ah262shd</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>Potenza, robustezza, durabilità e design silenziato. Il modello con denominazione “HD” è stato progettato per un utilizzo più intenso e per i lavori più impegnativi, ideale per i professionisti.Cilindrata (cc)25.4
-Potenza (Kw/CV)1/1.4
-Serbatoio (ml)600
-Lunghezza tot. asta (mm)2440
-Lunghezza (mm)536
-Peso a secco (Kg)6.5
-Velocità di taglio (tagli/min)5000</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr"/>
-    </row>
+    <row r="136"/>
     <row r="137"/>
     <row r="138"/>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>AHS236SLW</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>666,00</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/tagliasiepi/tosasiepi-ad-asta/ahs236slw</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>Tagliasiepi orientabile ultraleggero con nuova motorizzazione, che garantisce potenza ed efficienza nei consumi. I denti della lama sono nickelati e affilati in tre punti per tagli precisi e puliti.Cilindrata (cc)21.2
-Potenza (Kw/CV)0.7/0.95
-Serbatoio mix (ml)440
-Lunghezza tot. asta (mm)1749
-Lunghezza lama (mm)519
-Peso a secco (Kg)5.9
-Velocità di taglio (tagli/min)3900</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr"/>
-    </row>
-    <row r="140"/>
+    <row r="139"/>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>LAME GUIDA MARCHIATE</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/accessori/lame-e-catene/lame-guida-marchiate-shindaiwa</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+    </row>
     <row r="141"/>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>601SX</t>
+          <t>T410TS</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1045,00</t>
+          <t>839,00</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3249,36 +2962,217 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-forestali/601sx</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/t410ts</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Motosega professionale con potente motore a due tempi da 59.8 cc. Ottimo rapporto peso-potenza e emissioni ridotte nel rispetto della salute dell'ambiente e dell'operatore. Questo modello è perfetto per gli utilizzatori esigenti quali giardinieri o enti pubblici.Cilindrata (cc)59.8
-Potenza (Kw/CV)3.32/4.4
-Peso a secco*1 (Kg)6.3
-Capacità serbatoio MIX (ml)650
-Capacità serbatoio olio (ml)300
-Passo catena (pollici)3/8
-Maglie catena72
-Lunghezza barra applicabile* (pollici)20
-Canale Barra (mm/pollici)1.5/0.058</t>
+          <t>Decespugliatore professionale potente e robusto dotato di tecnologia High Torque in grado di svolgere anche i lavori più gravosi mantenendo consumi ridotti. Macchina progettata per garantire prestazioni eccellenti, equiparabili a quelle di decespugliatori di cilindrata superiore, senza affaticare l’operatore grazie alle basse vibrazioni generate.Cilindrata (cc)41.5Potenza (kw/CV)1,8/2,45Capacità serbatoio MIX (ml)690Peso a secco*1 (Kg.)8</t>
         </is>
       </c>
       <c r="H142" t="inlineStr"/>
     </row>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>B410TS</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>912,00</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/b410ts</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Cilindrata (cc)41.5Potenza (kw/CV)1,8/2,45Capacità serbatoio MIX (ml)690Peso a secco*1 (Kg.)8,7</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>C361T</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>784,00</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/c361t</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Medesime caratteristiche del modello con impugnatura ad “L”, questo decespugliatore estremamente potente racchiude le elevate performance del motore a 4 cicli con il comfort dell’impugnatura a “U”, ideale per un utilizzo anche su superfici sconnesse.Cilindrata (cc)36.3Potenza (Kw/CV)1.4/1.9Serbatoio mix (ml)850Peso a secco*1 (Kg)6,3</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>T361T</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>726,00</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/t361t</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Decespugliatore con potente motore a 4 cicli da 36,3 cm3, silenzioso, performante e dai consumi contenuti. Le prestazioni sono ulteriormente incrementate dalla presenza del sistema High Torque, che permette di lavorare con erba molto fitta e in condizioni particolarmente gravose senza difficoltà.Cilindrata (cc)36.3Potenza (Kw/CV)1.4/1.9Serbatoio mix (ml)850Peso a secco*1 (Kg)6.1</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>C303TS</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>708,00</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/c303ts</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Cilindrata (cc)30,5Potenza (kw/CV)1,3/1,77Peso a secco*1 (Kg.)6,0</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>T303TS</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>647,00</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/t303ts</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Decespugliatore con cilindrata da 30.5 cc per prestazioni professionali. L’eccezionale rapporto peso/potenza incrementa l’efficienza di lavoro e riduce la fatica dell’operatore. Il sistema High Torque permette di tagliare in modo agevole erba particolarmente fitta.Cilindrata (cc)30.5Potenza (Kw/CV)1.3/1.77Serbatoio mix (ml)710Peso a secco*1 (Kg)5,8</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr"/>
+    </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ADDI MIX DOSATORE LT 1,0</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr"/>
+          <t>T281TS</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>409,00</t>
+        </is>
+      </c>
       <c r="C148" t="inlineStr">
         <is>
           <t>Shindaiwa</t>
@@ -3296,19 +3190,27 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/olio-mix/addi-mix-dosatore-lt-1-0</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr"/>
+          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/t281ts</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Potente decespugliatore con cilindrata da 28.1 cc, dotato di sistema HIGH TORQUE è in grado di svolgere lavori impegnativi ottimizzando i tempi di lavoro e l’efficienza. Peso contenuto, efficiente sistema antivibrante per il massimo comfort di utilizzo.Cilindrata (cc)28.1Potenza (kw/CV)0,9/1,22Peso a secco*1 (Kg.)5,8Capacità serbatoio MIX (ml)610</t>
+        </is>
+      </c>
       <c r="H148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ADDI MIX LT 0,1</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr"/>
+          <t>T263TXS</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>538,00</t>
+        </is>
+      </c>
       <c r="C149" t="inlineStr">
         <is>
           <t>Shindaiwa</t>
@@ -3326,19 +3228,27 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/olio-mix/addi-mix-lt-0-1</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr"/>
+          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/t263txs</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Decespugliatore potente e performante grazie alla coppia conica High Torque che fornisce un ulteriore incremento dell’efficienza e dell’operatività. In caso di erba molto alta e spessa, la coppia conica High Torque è in grado di regolare velocità e potenza senza mettere sotto sforzo la macchina.Cilindrata (cc)25.4Potenza (kw/CV)1/1,36Peso a secco*1 (Kg.)5,6Capacità serbatoio MIX (ml)600</t>
+        </is>
+      </c>
       <c r="H149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ADDI MIX LT 4,0</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr"/>
+          <t>T252</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>309,00</t>
+        </is>
+      </c>
       <c r="C150" t="inlineStr">
         <is>
           <t>Shindaiwa</t>
@@ -3356,82 +3266,28 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/olio-mix/addi-mix-lt-4-0</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr"/>
+          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/t251</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Peso contenuto, potenza di 0,9 Kw per questo decespugliatore che abbina straordinaria manovrabilità con efficienti prestazioni di taglio.Cilindrata (cc)25,4Potenza (kw/CV)0,9/1,22Peso a secco*1 (Kg.)5,3</t>
+        </is>
+      </c>
       <c r="H150" t="inlineStr"/>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>PRO UP 2 LT 5,0</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/olio-mix/pro-up-2t-lt-5-0</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-    </row>
+    <row r="151"/>
     <row r="152"/>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>PRO UP 2 LT 0,1</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/olio-mix/pro-up-2t-lt-0-1</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
-    </row>
+    <row r="153"/>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>GUANTI PROTETTIVI DA LAVORO</t>
+          <t>451S</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>17,00</t>
+          <t>565,00</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3451,12 +3307,12 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-protettivo/guanti-da-lavoro-ska201701</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-multifunzione/451s</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>TagliaM-XL</t>
+          <t>Motosega multiuso, con cilindrata da 45 cc. Ergonomia, leggerezza e vibrazioni estremamente contenute per offrire un ottimo confort di utilizzo. Motore EURO 5 appositamente progettato per garantire emissioni contenute e ridurre drasticamente i consumi di carburante.Cilindrata (cc)45Potenza (Kw/CV)2.3/3.1Capacità serbatoio mix (ml)480Capacità serbatoio olio (ml)330Peso a secco*1 (Kg)5.0Passo catena 0.325Canale (mm/pollici)1.5/0.058Maglie64Lunghezza barra applicata* (pollici)15</t>
         </is>
       </c>
       <c r="H154" t="inlineStr"/>
@@ -3464,12 +3320,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>OCCHIALI PROTETTIVI</t>
+          <t>341AC</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>436,00</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3489,12 +3345,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-protettivo/occhiali-protettivi-ska1922</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-multifunzione/341ac</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>TagliaUnica</t>
+          <t>Modello multiuso caratterizzato dal sistema Starter Autimatico che garantisce una fornitura sempre ottimale del carburante in base alla temperatura del motore. Dotata di avviamento facilitato per un maggior comfort di utilizzo e dimensioni compatte per una migliore manovrabilità.Cilindrata (cc)34,4Potenza (Kw/CV)1.5/2.1Capacità serbatoio mix (ml)280Capacità serbatoio olio (ml)230Peso a secco*1 (Kg)3,8Passo catena3/8"Canale (mm/pollici)1.3/0.050Lunghezza barra applicata* (pollici)14</t>
         </is>
       </c>
       <c r="H155" t="inlineStr"/>
@@ -3502,12 +3358,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CUFFIE PROTETTIVE SHINDAIWA</t>
+          <t>T226S</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>239,00</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3527,102 +3383,28 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-protettivo/cuffie-protettive-ska629</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/decespugliatori/decespugliatori-standard/t226s</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>TagliaUnica</t>
+          <t>Il modello più compatto della gamma decespugliatori, il peso contenuto e il sistema Soft Start lo rendono estremamente comodo da usare, ideale per gli utilizzatori privati che devono curare giardini di dimensioni medio-piccole.Cilindrata (cc)21.2Potenza (kw/CV)0,71/0,95Peso a secco*1 (Kg.)4,5Capacità serbatoio MIX (ml)400</t>
         </is>
       </c>
       <c r="H156" t="inlineStr"/>
     </row>
     <row r="157"/>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>ZAINO ERGO PRO</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>108,00</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-protettivo/zaino-da-lavoro-skac06200620</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>TagliaUnica</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>VISIERA CON CUFFIE SHINDAIWA</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>49,00</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-protettivo/visiera-protettiva-ska701331</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>TagliaUnica</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr"/>
-    </row>
+    <row r="158"/>
+    <row r="159"/>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>MAGLIA TECNICA SHINDAIWA PLUS M/CORTE</t>
+          <t>305S</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>35,00</t>
+          <t>289,00</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3642,63 +3424,26 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-protettivo/maglia-tecnica-maniche-corte-ska130182</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-multifunzione/305s</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>TagliaS-XXL</t>
+          <t>Potente motosega multiuso adatta a svolgere diversi tipi di lavoro. Sistema Soft Start per ridurre drasticamente lo sforzo nell’accensione. Un modello leggero e affidabile in grado di soddisfare ogni tipo di utilizzatore, dal privato al professionista.Cilindrata (cc)30.5Potenza (Kw/CV)1.1/1.5Peso a secco*1 (Kg)4Capacità serbatoio MIX (ml)250Capacità serbatoio olio (ml)260Passo catena (pollici)3/8 b.p.Maglie catena53Lunghezza barra applicabile* (pollici)14Canale Barra (mm/pollici)1.3/0.050</t>
         </is>
       </c>
       <c r="H160" t="inlineStr"/>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>MAGLIA TECNICA SHINDAIWA PLUS</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>55,00</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-protettivo/maglia-da-lavoro-tecnica-ska130181</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>TagliaS-XXL</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr"/>
-    </row>
+    <row r="161"/>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PANTALONE PROTETTIVO PLUS</t>
+          <t>362WS</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>59,00</t>
+          <t>499,00</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3718,12 +3463,12 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-protettivo/pantalone-protettivo</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-multifunzione/362ws</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>TagliaM-XL</t>
+          <t>Cilindrata (cc)35.8Potenza (Kw/CV)1.5/2.04Peso a secco*1 (Kg)3.8Capacità serbatoio MIX (ml)320Capacità serbatoio olio (ml)230Passo catena (pollici)3/8 b.p.Maglie catena53Lunghezza barra applicabile* (pollici)14Canale Barra (mm/pollici)1.3/0.050</t>
         </is>
       </c>
       <c r="H162" t="inlineStr"/>
@@ -3732,12 +3477,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>GILET SHINDAIWA PLUS</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>69,00</t>
+          <t>MOTOSEGHE</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3757,122 +3497,64 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-protettivo/gilet-da-lavoro-ska201110-01-05</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>TagliaS-XXL</t>
-        </is>
-      </c>
+          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-multifunzione/motoseghe</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>PILE CON ZIP SHINDAIWA</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-casual/giacca-pile-da-lavoro-skapile17</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>TagliaM-XXL</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr"/>
-    </row>
-    <row r="166"/>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>PANTALONE BERMUDA SHINDAIWA</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-casual/pantalone-da-lavoro-skabermuda17</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>TagliaM-XXL</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr"/>
-    </row>
+    <row r="165"/>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>251WS</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>547,00</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-multifunzione/251ws</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Motosega multiuso basata sul noto modello 251TS ma con doppia impugnatura per una migliore manovrabilità.Cilindrata (cc)25Potenza (Kw/CV)1.10/1.50Peso a secco*1 (Kg)2.6Capacità serbatoio MIX (ml)190Capacità serbatoio olio (ml)140Passo catena (pollici)1/4Maglie catena60Lunghezza barra applicabile* (pollici)10Canale Barra (mm/pollici)1.1/0.043</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr"/>
+    </row>
+    <row r="167"/>
     <row r="168"/>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>GIACCA SOFTSHELL SHINDAIWA</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-casual/giacca-da-lavoro-ska130141</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>TagliaM-XXL</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr"/>
-    </row>
+    <row r="169"/>
     <row r="170"/>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>POLO A MANICA CORTA SHINDAIWA</t>
+          <t>AHS236SLW</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>666,00</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3892,94 +3574,215 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-casual/polo-da-lavoro-manica-corta-skapolomc17</t>
+          <t>https://www.shindaiwa-italia.it/prodotti/tagliasiepi/tosasiepi-ad-asta/ahs236slw</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>TagliaS-XXL</t>
+          <t>Tagliasiepi orientabile ultraleggero con nuova motorizzazione, che garantisce potenza ed efficienza nei consumi. I denti della lama sono nickelati e affilati in tre punti per tagli precisi e puliti.Cilindrata (cc)21.2Potenza (Kw/CV)0.7/0.95Serbatoio mix (ml)440Lunghezza tot. asta (mm)1749Lunghezza lama (mm)519Peso a secco (Kg)5.9Velocità di taglio (tagli/min)3900</t>
         </is>
       </c>
       <c r="H171" t="inlineStr"/>
     </row>
-    <row r="172"/>
-    <row r="173"/>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>AH236SLW</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>684,00</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/tagliasiepi/tosasiepi-ad-asta/ah236slw</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Modello ultraleggero con motorizzazioni Euro 5, le emissioni e i consumi sono estremamente contenuti. Questa macchina è stata progettata per soddisfare a pieno il professionista grazie alla potenza e alla qualità delle lame che insieme garantiscono un taglio preciso e un’ottima operatività.Cilindrata (cc)21.2Potenza (Kw/CV)0.7/0.95Serbatoio mix (ml)440Lunghezza tot. asta (mm)2407Lunghezza lama (mm)519Peso a secco (Kg)6.2Velocità di taglio (tagli/min)3900</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>280TS</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>383,00</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-potatura/280ts</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Motosega da potatura dotata di potente motore Euro 5 che riduce drasticamente le emissioni di gas di scarico e migliora l’efficienza e l’operatività. Peso contenuto e ottimo bilanciamento.Cilindrata (cc)26.9Potenza (Kw/CV)1.04/1.4Peso a secco*1 (Kg)3Capacità serbatoio MIX (ml)240Capacità serbatoio olio (ml)160Passo catena (pollici)3/8 b.p.Maglie catena40Lunghezza barra applicabile* (pollici)10Canale Barra (mm/pollici)1.3/0.050</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr"/>
+    </row>
     <row r="174"/>
     <row r="175"/>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>POLO A MANICA LUNGA SHINDAIWA</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-casual/polo-da-lavoro-manica-lunga-skapoloml17</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>TagliaS-XXL</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>PANTALONE TECNICO SHINDAIWA</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Shindaiwa</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>https://www.shindaiwa-italia.it/prodotti/accessori/abbigliamento-casual/pantalone-da-lavoro-tecnico-skapant17-m-xxl</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>TagliaM-XXL</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr"/>
-    </row>
+    <row r="176"/>
+    <row r="177"/>
     <row r="178"/>
     <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>280TCS</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>439,00</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-potatura/280tcs</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Cilindrata (cc)26.9Potenza (Kw/CV)1.04/1.4Peso a secco*1 (Kg)3Capacità serbatoio MIX (ml)240Capacità serbatoio olio (ml)160Passo catena (pollici)¼Maglie catena60Lunghezza barra applicabile* (pollici)10Canale Barra (mm/pollici)1.3/0.050</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>251TCS</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>549,00</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-potatura/251tcs</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Cilindrata (cc)25Potenza (Kw/CV)1.10/1.50Capacità serbatoio mix (ml)190Capacità serbatoio olio (ml)140Peso a secco*1 (Kg)2.3Lunghezza barra applicata* (pollici)8Canale barra (mm/pollici)1.1/0.043Maglie52</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr"/>
+    </row>
     <row r="182"/>
     <row r="183"/>
     <row r="184"/>
-    <row r="185"/>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>251TS</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>https://www.shindaiwa-italia.it/prodotti/motoseghe/motoseghe-potatura/251ts</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>La motosega da potatura più piccola e compatta della sua categoria; Ideale per un uso professionale grazie al suo peso estremamente ridotto, all’eccezionale potenza generata e ad una serie di accorgimenti che permettono di lavorare in modo prolungato senza affaticare l’operatore. Disponibile come optional lo schermo detriti.Cilindrata (cc)25Potenza (Kw/CV)1.10/1.50Peso a secco*1 (Kg)2.3Capacità serbatoio MIX (ml)190Capacità serbatoio olio (ml)140Passo catena (pollici)3/8 b.p.Maglie catena40Lunghezza barra applicabile* (pollici)10Canale Barra (mm/pollici)1.3/0.050</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr"/>
+    </row>
     <row r="186"/>
     <row r="187"/>
     <row r="188"/>
